--- a/data/hotels_by_city/Houston/Houston_shard_7.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d5991450-Reviews-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Suites-Deer-Park-Houston.h1592338.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,153 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r372216883-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>5991450</t>
+  </si>
+  <si>
+    <t>372216883</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bina P, Manager at Americas Best Value Inn &amp;  Suites- Deer Park / Houston, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r362166347-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>362166347</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r326380062-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>326380062</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r235201844-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>235201844</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r232615672-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>232615672</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r160881967-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>160881967</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r145356835-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>145356835</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r135366603-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>135366603</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel over a week. It is a very clean hotel with nice rooms and good housekeeping service. The free breakfast was nice too. And the best part was the price! The parking is small, but we were able to get a spot every night.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r133666655-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>133666655</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Ok for value</t>
+  </si>
+  <si>
+    <t>If you are traveling with a trailer...DON'T COME HERE!!! The parking is ridiculous one way in and out. Cigarette butts all over the stairwell, mold in the bathroom shower and the floor was nasty. Bed was not queen size, but full size. No other amenities, luckily we are only here for one night.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +688,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +720,646 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_7.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r551488173-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>5991450</t>
+  </si>
+  <si>
+    <t>551488173</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn’t have to stay after all and since it was prepaid they didn’t want to Reimburse me my money. Spoke to manager in the hotel and he claims it was to late to cancel. I ended up going home anyways and just loss my money </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r546494283-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>546494283</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small, dank and creepy </t>
+  </si>
+  <si>
+    <t>Don’t let the advertised pictures fool you. The place is hidden in an old rundown area. The check in counter and where the “breakfast” is served takes up the same are as one of the rooms. The walk way smelled of urine. Room is dark and smelled musty. Top sheet was stained. Hand soap dispenser that was attached to the wall was just sitting on the counter. Bed was kinda hard. Needs painting. The ceiling that’s painted to look like the sky is cheesy. Other than that, the room was otherwise clean, but that’s the only good thing I can say. Thank goodness it was just an overnight stay. It’s really nothing more than a Super 8 Motel. In no way worth $105 per night! You live and you learn. Wouldn’t recommend this place to my worst enemy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Don’t let the advertised pictures fool you. The place is hidden in an old rundown area. The check in counter and where the “breakfast” is served takes up the same are as one of the rooms. The walk way smelled of urine. Room is dark and smelled musty. Top sheet was stained. Hand soap dispenser that was attached to the wall was just sitting on the counter. Bed was kinda hard. Needs painting. The ceiling that’s painted to look like the sky is cheesy. Other than that, the room was otherwise clean, but that’s the only good thing I can say. Thank goodness it was just an overnight stay. It’s really nothing more than a Super 8 Motel. In no way worth $105 per night! You live and you learn. Wouldn’t recommend this place to my worst enemy.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r372216883-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
   </si>
   <si>
-    <t>55726</t>
-  </si>
-  <si>
-    <t>5991450</t>
-  </si>
-  <si>
     <t>372216883</t>
   </si>
   <si>
@@ -210,7 +255,40 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r305473676-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>305473676</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Good Nights</t>
+  </si>
+  <si>
+    <t>I wish I could better rates, for time that I plan to stay there 5-days, after the 9/8/2015 will be their for 7-days for a month, If it able to do</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r236743493-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>236743493</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Staff and Parking were horrendous</t>
+  </si>
+  <si>
+    <t>I was very disappointed with this place.  The parking was horrible.  They have more rooms then parking space and then the spaces are very crowded.  The quality of service that I received was just as bad.  The staff put two holds on my room with the my bank account and the final charge was not done until a day later.  Then instead of having just one charge, I  had two charges go through my bank.  Be careful of giving them information..especially your bank's debit card!!!!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r235201844-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
@@ -222,9 +300,6 @@
     <t>10/19/2014</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r232615672-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -237,9 +312,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r160881967-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -252,6 +324,39 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r155619533-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>155619533</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r150792680-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>150792680</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Too Much for Too Little</t>
+  </si>
+  <si>
+    <t>I gave it average because of it location if you are going to Shell Refinery as I was you cant beat it.  Having said that I had issues with housekeeping they despite my requests kept trying to clean the room with me in it!?  Parking lot is tiny. The complimentary breakfast is a joke, there wasnt anything consiastent about the breakfast no milk lots cereal, wafle maker no wafle mix or either or no syrup, no help from staff "all family" if you had to wait you would be late.  i skipped breakfast most times. Internet service is poor I was unable to stream anything from my room. Again I give it a avaerage rating because it is basically clean efficent hotel in a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I gave it average because of it location if you are going to Shell Refinery as I was you cant beat it.  Having said that I had issues with housekeeping they despite my requests kept trying to clean the room with me in it!?  Parking lot is tiny. The complimentary breakfast is a joke, there wasnt anything consiastent about the breakfast no milk lots cereal, wafle maker no wafle mix or either or no syrup, no help from staff "all family" if you had to wait you would be late.  i skipped breakfast most times. Internet service is poor I was unable to stream anything from my room. Again I give it a avaerage rating because it is basically clean efficent hotel in a great location.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r145356835-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -295,6 +400,27 @@
   </si>
   <si>
     <t>If you are traveling with a trailer...DON'T COME HERE!!! The parking is ridiculous one way in and out. Cigarette butts all over the stairwell, mold in the bathroom shower and the floor was nasty. Bed was not queen size, but full size. No other amenities, luckily we are only here for one night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d5991450-r131136346-Americas_Best_Value_Inn_Suites_Deer_Park_Houston-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>131136346</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Good Value, but Parking Is A Problem</t>
+  </si>
+  <si>
+    <t>This is a good, clean, comfortable hotel with easy access to several historic sites, attractions and restaurants in the Deer Park/Houston area.  The price is good...not great.  There is no pool and the parking lot is VERY small!!  If you get back to the room late in the evening when they are booked full, you may have a tough time finding a place to park.  Part of the parking problem is that the hotel seems to be used by a lot of people who drive very large trucks who seem to need to parking spaces.  Not really the hotel's fault, but still a problem.  The hotel is just south of highway 225 which is a major highway running west into Houston with downtown less that 30 minutes away.  It also has easy access to Galveston and other major attractions.  If you are going to stay here or in the Deer Park area, check out Ken's Restaurant on Center Street!!!  Great little family owned restaurant with fantastic food, great prices and one of the few places close that serves a full breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This is a good, clean, comfortable hotel with easy access to several historic sites, attractions and restaurants in the Deer Park/Houston area.  The price is good...not great.  There is no pool and the parking lot is VERY small!!  If you get back to the room late in the evening when they are booked full, you may have a tough time finding a place to park.  Part of the parking problem is that the hotel seems to be used by a lot of people who drive very large trucks who seem to need to parking spaces.  Not really the hotel's fault, but still a problem.  The hotel is just south of highway 225 which is a major highway running west into Houston with downtown less that 30 minutes away.  It also has easy access to Galveston and other major attractions.  If you are going to stay here or in the Deer Park area, check out Ken's Restaurant on Center Street!!!  Great little family owned restaurant with fantastic food, great prices and one of the few places close that serves a full breakfast!More</t>
   </si>
 </sst>
 </file>
@@ -822,46 +948,44 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -877,7 +1001,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -886,44 +1010,40 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -938,7 +1058,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -947,35 +1067,35 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -984,10 +1104,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1003,7 +1127,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1012,37 +1136,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1064,7 +1188,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1073,44 +1197,48 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1125,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1134,44 +1262,50 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1186,7 +1320,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1195,42 +1329,50 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1245,7 +1387,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1254,50 +1396,44 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" t="s">
-        <v>86</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>86</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1312,7 +1448,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1321,22 +1457,22 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
       <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
       <c r="P10" t="n">
         <v>3</v>
       </c>
@@ -1344,22 +1480,465 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>92</v>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54900</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
